--- a/Database/jeu de données database.xlsx
+++ b/Database/jeu de données database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\Desktop\Travail\PETUT S3\PETUT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\Desktop\Travail\PETUT S3\PETUT\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12624" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12624" tabRatio="975" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>id_Commentaire</t>
   </si>
@@ -128,6 +128,36 @@
   </si>
   <si>
     <t>Type_Utilisateur</t>
+  </si>
+  <si>
+    <t>IUT Informatique</t>
+  </si>
+  <si>
+    <t>133 Avenue de Rangueil, 31100 Toulouse</t>
+  </si>
+  <si>
+    <t>Bremec</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>17C Avenue du Gers, 31270 Frouzins</t>
+  </si>
+  <si>
+    <t>fbremec@gmail.com</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Magnaud</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -151,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +200,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7CC576"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -183,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -192,6 +228,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,9 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -721,21 +761,21 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -763,6 +803,165 @@
       </c>
       <c r="H1" s="3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>781734740</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="WorksheetGuid" r:id="rId1"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="WorksheetGuid" r:id="rId2"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -784,127 +983,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <customProperties>
-    <customPr name="WorksheetGuid" r:id="rId2"/>
-  </customProperties>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="I12:J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="WorksheetGuid" r:id="rId1"/>
-  </customProperties>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
@@ -945,15 +1023,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -968,9 +1048,20 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>

--- a/Database/jeu de données database.xlsx
+++ b/Database/jeu de données database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12624" tabRatio="975" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12624" tabRatio="975" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>id_Commentaire</t>
   </si>
@@ -148,16 +148,43 @@
     <t>fbremec@gmail.com</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>Magnaud</t>
   </si>
   <si>
     <t>Patrick</t>
   </si>
   <si>
-    <t>p</t>
+    <t>etudiant</t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>viescolaire</t>
+  </si>
+  <si>
+    <t>Partiels</t>
+  </si>
+  <si>
+    <t>Travaux Pratiques</t>
+  </si>
+  <si>
+    <t>Travaux Dirigés</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>M1101</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Création d'une machine virtuelle Linux</t>
+  </si>
+  <si>
+    <t>enseignant</t>
   </si>
 </sst>
 </file>
@@ -181,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,12 +224,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFCC7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7CC576"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,9 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +575,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -575,11 +594,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="82fMnC8IWTuoXxHMBD9wM9EKTU/DlwUqFz+tmVrw3RFCbKfohJo7QBNPX6SXo1LHcRGQzpXbsD7rKXuE7Tt9+A==" saltValue="AcThIErcm+paeHc0Zqtdpg==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="WorksheetGuid" r:id="rId1"/>
@@ -589,7 +616,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,12 +639,23 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KUF8Y97VVl0MhDIAw3X/+z5M7AOIBC1L1iIzn8PpOPTkaPtOWoQdvN+4gNCIJRr9Y4BaI+BfyosyEYzqzMCsYQ==" saltValue="JRMP5SQ1lm8H3LVhXRSJ4g==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="WorksheetGuid" r:id="rId1"/>
@@ -665,7 +703,7 @@
       <c r="E2" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H7bBlNkxwZNPkHHXrYNuwEmNtIB36FyGVklwyu3mPHVoman0IzImQqfAL/Yx4xA0J5G0irZje9mNxkBGcs+1Jg==" saltValue="SH9iLWNzTx9z/ziaF0C9aw==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="WorksheetGuid" r:id="rId1"/>
@@ -675,7 +713,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -698,12 +736,56 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MdB9cEL1d0EM6Fu5755UJpYrthwpusTyQhKPvuUOsNm98R2OBUtm4ub5B4wSIbU7XbH4utmMddlP2VvH6GUrfQ==" saltValue="U/qvmni4oN2+7WTFDEiGiA==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="WorksheetGuid" r:id="rId1"/>
@@ -713,7 +795,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +804,7 @@
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -744,14 +826,31 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tgg/xgcXbqKcUbD9yIPbDe0H087nDhiX9n0/z+1C1xhE4qVP5mMjtQ0iSEUMo0zMKgscuYKMiG8DOWUpRLzXpw==" saltValue="g5X0eZthV6j8UM4NX6U95w==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="WorksheetGuid" r:id="rId1"/>
@@ -763,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,33 +879,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -825,44 +924,41 @@
       <c r="G2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>39</v>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="WorksheetGuid" r:id="rId1"/>
-  </customProperties>
 </worksheet>
 </file>
 
@@ -870,7 +966,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -911,7 +1009,7 @@
       <c r="F2" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AOaPcz2leocBeM1dh1oKjXAPBO/K/sF/9N+9LX6UM+i9Qdg0zgePbwd6gWrOVLWLf4n2Ts1SbK45AbKsME7HWw==" saltValue="+vGAqSYyUsWqYpO5Bblkdw==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
@@ -975,7 +1073,7 @@
       <c r="H2" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q5/T3OTZNv01Tm/ONbRfJ7+Ofyeg0mvbb0zeOtAEr0m/iYQq4Yr4s8xXfA/Yj+4HlEmLGLekQMGLWO+ZgziGug==" saltValue="3VQBRx/R20wBnQGx5eyIcQ==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="WorksheetGuid" r:id="rId1"/>
@@ -1013,7 +1111,7 @@
       <c r="C2" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eFPiDCS+GcSuQrH+/XFJWGGaHT7OoB0Q9l4p5FT76MA4/wof2L9DNFqOjEY55YTAetW0yhDGyappEhmleTldcA==" saltValue="rCRwl4upAj97qTwNNaQdlg==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="WorksheetGuid" r:id="rId1"/>
@@ -1025,9 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1048,13 +1144,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1064,7 +1160,7 @@
       <c r="C3" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NrMA/WvOppFrGmV5rk4kRwnL6DgmFfc+XQ37selBynLFV2A8ExV3KaGCpyAkoOwN4k1TZ+sa4GJDbxh18CN4fw==" saltValue="jwJwQPyM4VgIUvgRM1vuig==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="WorksheetGuid" r:id="rId1"/>
@@ -1074,15 +1170,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1100,13 +1198,69 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uqdOweZwSM/f2e+88rb/w7R84mHRZH0xTX8fV9r0jdakVnT84Oup73Gk+r3KTLNmJw8he/0xen8VQ6Oh9yAn7g==" saltValue="rD0MO83JKpgMZm4K63+R5w==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="WorksheetGuid" r:id="rId1"/>
@@ -1116,7 +1270,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1135,11 +1289,43 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kxFi0l1Kx6kd01QiCl66SHBn9Lg8RWSs+vlZ3UaoD49Ym6CscRAUed19yK65OSNc8dRiZlLXlNbQaRFHs7GO3w==" saltValue="kSb/g/hwHVctJhGRnqRYYg==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="WorksheetGuid" r:id="rId1"/>
@@ -1149,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1172,12 +1358,23 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MbaOJR0/lf243ZdlqzgPNeCpluJV08azqY4NEoVyOSp2/X1PxNLxUWeSEApOGGPL1flFq2HtlwxyO+3uIvZLIQ==" saltValue="p6xjjF5VOFsG3xjEg4bDDg==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="WorksheetGuid" r:id="rId1"/>
@@ -1187,7 +1384,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1196,7 +1393,7 @@
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1218,14 +1415,31 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="b4umF/M4aApU2bztkjZPTzl+W4xsTDDqT4YuKksd2GLAzVJWKtjzxCKZVrxV2t0+hofaik/RQaxtvlQM0muoBA==" saltValue="0Nc/7U118ltlNuV4r6yfIw==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="WorksheetGuid" r:id="rId1"/>
